--- a/src/test/resources/org/bbreak/excella/reports/tag/RowRepeatParamParserTest.xlsx
+++ b/src/test/resources/org/bbreak/excella/reports/tag/RowRepeatParamParserTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="405" windowWidth="15480" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="7635" yWindow="870" windowWidth="15480" windowHeight="11640" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="Sheet14" sheetId="21" r:id="rId14"/>
     <sheet name="Sheet15" sheetId="19" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="22" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="23" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
   <si>
     <t>$R[]{B}</t>
     <phoneticPr fontId="1"/>
@@ -522,6 +523,10 @@
   </si>
   <si>
     <t>A7</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>$R[]{A,rowShift=true}</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -732,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,6 +830,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2039,11 +2047,37 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>

--- a/src/test/resources/org/bbreak/excella/reports/tag/RowRepeatParamParserTest.xlsx
+++ b/src/test/resources/org/bbreak/excella/reports/tag/RowRepeatParamParserTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="870" windowWidth="15480" windowHeight="11640" firstSheet="6" activeTab="16"/>
+    <workbookView xWindow="7635" yWindow="870" windowWidth="15480" windowHeight="11640" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="Sheet15" sheetId="19" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="22" r:id="rId16"/>
     <sheet name="Sheet17" sheetId="23" r:id="rId17"/>
+    <sheet name="Sheet18" sheetId="24" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="134">
   <si>
     <t>$R[]{B}</t>
     <phoneticPr fontId="1"/>
@@ -528,6 +529,57 @@
   <si>
     <t>$R[]{A,rowShift=true}</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>$R[]{A,minRepeatNum=5}</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>$R[]{B,minRepeatNum=4}</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F10</t>
   </si>
 </sst>
 </file>
@@ -585,7 +637,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,6 +722,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -737,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,6 +891,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,7 +1691,7 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1698,7 +1762,7 @@
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1767,7 +1831,7 @@
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1836,7 +1900,7 @@
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1905,7 +1969,7 @@
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1975,7 +2039,7 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2043,7 +2107,7 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2051,7 +2115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -2070,6 +2134,105 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="D4" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="F6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="F7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="F9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2706,7 +2869,7 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2793,6 +2956,6 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>